--- a/Attendence/Attendence.xlsx
+++ b/Attendence/Attendence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav\Desktop\Training\Corp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B142DA50-EFB7-45B9-85D7-4D18E597C012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8565C8-A5FB-47D2-B4A1-FE84200274BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19755" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="50">
   <si>
     <t>Ankita</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Laxman Sahu</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>17-04-20202</t>
   </si>
 </sst>
 </file>
@@ -257,9 +263,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B9A46C-3463-431C-A2A9-DFF2BCE1DA47}" name="Table1" displayName="Table1" ref="A1:L20" totalsRowShown="0">
-  <autoFilter ref="A1:L20" xr:uid="{1835B0DB-0BB3-4D3B-AB29-B502963824C5}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B9A46C-3463-431C-A2A9-DFF2BCE1DA47}" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
+  <autoFilter ref="A1:M20" xr:uid="{1835B0DB-0BB3-4D3B-AB29-B502963824C5}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DEA01A4B-1D09-4260-BB5E-099494020AEF}" name="Name"/>
     <tableColumn id="2" xr3:uid="{18DAF983-76BD-4E87-AB6B-DF1A8A599210}" name="Tech"/>
     <tableColumn id="4" xr3:uid="{71352BA9-55A3-4D48-AC02-EB0A45837FC8}" name="Java Available"/>
@@ -272,6 +278,7 @@
     <tableColumn id="10" xr3:uid="{35EE2C34-A31D-4081-BFDB-C6C283FADEC7}" name="13-04-2020"/>
     <tableColumn id="11" xr3:uid="{427AEA52-79AB-45E3-8D20-73A08695C2E0}" name="15-04-2020"/>
     <tableColumn id="12" xr3:uid="{F9FE4726-021E-43EE-9C86-01BAF4219D89}" name="16-04-2020"/>
+    <tableColumn id="13" xr3:uid="{4744448E-10C9-420B-8CEE-942D14EF6379}" name="17-04-20202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -540,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,11 +565,12 @@
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="87.5703125" customWidth="1"/>
-    <col min="14" max="14" width="111.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="87.5703125" customWidth="1"/>
+    <col min="15" max="15" width="111.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -599,12 +607,15 @@
       <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -641,14 +652,17 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -682,14 +696,17 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -726,14 +743,17 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -770,14 +790,17 @@
       <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -814,8 +837,11 @@
       <c r="L6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -852,8 +878,11 @@
       <c r="L7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -890,8 +919,11 @@
       <c r="L8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -928,8 +960,11 @@
       <c r="L9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -966,8 +1001,11 @@
       <c r="L10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1001,8 +1039,14 @@
       <c r="K11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1036,8 +1080,14 @@
       <c r="K12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1071,8 +1121,14 @@
       <c r="K13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1165,11 @@
       <c r="L14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1147,8 +1206,11 @@
       <c r="L15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1185,8 +1247,11 @@
       <c r="L16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1223,31 +1288,55 @@
       <c r="L17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
       <c r="K19" t="s">
         <v>16</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
       <c r="K20" t="s">
         <v>16</v>
       </c>
       <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
         <v>16</v>
       </c>
     </row>
